--- a/public/summary.xlsx
+++ b/public/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bait0ng\Desktop\GrantOnline\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105C2964-2114-4075-B316-7AE55410913B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0B4C32-8035-4199-A975-12AD1DFD130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96521A9D-1467-45AF-81AC-4A3152C8272C}"/>
   </bookViews>
@@ -19,6 +19,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AX$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -304,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -356,12 +369,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -459,82 +524,89 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1222,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C17DE4-5C04-47BD-B2C6-C181181D5936}">
   <dimension ref="B3:AX37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.75" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -1232,11 +1304,12 @@
     <col min="2" max="2" width="3" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="1.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="1.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="1.75" style="1" customWidth="1"/>
     <col min="16" max="17" width="2.25" style="1" customWidth="1"/>
     <col min="18" max="18" width="2.125" style="1" customWidth="1"/>
     <col min="19" max="21" width="2.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="2.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.375" style="1" customWidth="1"/>
     <col min="23" max="46" width="1.75" style="1" customWidth="1"/>
     <col min="47" max="47" width="1.625" style="1" customWidth="1"/>
     <col min="48" max="48" width="2.75" style="1" customWidth="1"/>
@@ -1344,7 +1417,7 @@
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
     </row>
-    <row r="5" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:50" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B5" s="22"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1394,7 +1467,7 @@
       <c r="AV5" s="4"/>
       <c r="AW5" s="4"/>
     </row>
-    <row r="6" spans="2:50" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:50" s="2" customFormat="1" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="22"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1414,14 +1487,14 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="70"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -1438,23 +1511,23 @@
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
-      <c r="AK6" s="30" t="s">
+      <c r="AK6" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="66"/>
       <c r="AU6" s="31"/>
       <c r="AV6" s="31"/>
       <c r="AW6" s="32"/>
     </row>
-    <row r="7" spans="2:50" s="26" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:50" s="26" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="B7" s="25"/>
       <c r="C7" s="6" t="s">
         <v>39</v>
@@ -1462,15 +1535,15 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="H7" s="58" t="s">
+      <c r="H7" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -1490,26 +1563,26 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
-      <c r="AF7" s="46" t="s">
+      <c r="AF7" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="55"/>
-      <c r="AW7" s="55"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
+      <c r="AU7" s="48"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="48"/>
       <c r="AX7" s="37"/>
     </row>
     <row r="8" spans="2:50" x14ac:dyDescent="0.6">
@@ -1535,36 +1608,36 @@
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="60"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="53"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="40"/>
-      <c r="AT8" s="40"/>
-      <c r="AU8" s="60"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="53"/>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
     </row>
@@ -1581,48 +1654,48 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53"/>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="63"/>
+      <c r="AO9" s="63"/>
+      <c r="AP9" s="63"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="63"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="63"/>
       <c r="AX9" s="33"/>
     </row>
     <row r="10" spans="2:50" x14ac:dyDescent="0.6">
@@ -1636,48 +1709,48 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
     </row>
     <row r="11" spans="2:50" x14ac:dyDescent="0.6">
       <c r="B11" s="8">
@@ -1698,42 +1771,42 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="41" t="s">
+      <c r="P11" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="42"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="41"/>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="41"/>
+      <c r="AV11" s="41"/>
+      <c r="AW11" s="41"/>
     </row>
     <row r="12" spans="2:50" x14ac:dyDescent="0.6">
       <c r="B12" s="8">
@@ -1750,46 +1823,46 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
     </row>
     <row r="13" spans="2:50" x14ac:dyDescent="0.6">
       <c r="B13" s="14">
@@ -1806,46 +1879,46 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="63"/>
+      <c r="AM13" s="63"/>
+      <c r="AN13" s="63"/>
+      <c r="AO13" s="63"/>
+      <c r="AP13" s="63"/>
+      <c r="AQ13" s="63"/>
+      <c r="AR13" s="63"/>
+      <c r="AS13" s="63"/>
+      <c r="AT13" s="63"/>
+      <c r="AU13" s="63"/>
+      <c r="AV13" s="63"/>
+      <c r="AW13" s="63"/>
       <c r="AX13" s="33"/>
     </row>
     <row r="14" spans="2:50" x14ac:dyDescent="0.6">
@@ -1864,38 +1937,38 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="56" t="s">
+      <c r="M14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="56"/>
+      <c r="N14" s="49"/>
       <c r="O14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="57" t="s">
+      <c r="S14" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
       <c r="AM14" s="8"/>
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
@@ -1933,16 +2006,16 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="54">
+      <c r="T15" s="42">
         <v>3</v>
       </c>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="50" t="s">
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
@@ -1970,11 +2043,11 @@
     </row>
     <row r="16" spans="2:50" x14ac:dyDescent="0.6">
       <c r="B16" s="8"/>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="7">
         <v>1</v>
       </c>
@@ -1986,17 +2059,17 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="48" t="s">
+      <c r="M16" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7" t="s">
         <v>16</v>
@@ -2010,31 +2083,31 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="49"/>
-      <c r="AL16" s="49"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="49"/>
-      <c r="AP16" s="49"/>
-      <c r="AQ16" s="49"/>
-      <c r="AR16" s="49"/>
-      <c r="AS16" s="49"/>
-      <c r="AT16" s="49"/>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="49"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="62"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="62"/>
     </row>
     <row r="17" spans="2:50" x14ac:dyDescent="0.6">
       <c r="B17" s="8"/>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="7">
         <v>2</v>
       </c>
@@ -2046,17 +2119,17 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7" t="s">
         <v>16</v>
@@ -2070,31 +2143,31 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="47"/>
-      <c r="AL17" s="47"/>
-      <c r="AM17" s="47"/>
-      <c r="AN17" s="47"/>
-      <c r="AO17" s="47"/>
-      <c r="AP17" s="47"/>
-      <c r="AQ17" s="47"/>
-      <c r="AR17" s="47"/>
-      <c r="AS17" s="47"/>
-      <c r="AT17" s="47"/>
-      <c r="AU17" s="47"/>
-      <c r="AV17" s="47"/>
-      <c r="AW17" s="47"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="61"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="61"/>
+      <c r="AU17" s="61"/>
+      <c r="AV17" s="61"/>
+      <c r="AW17" s="61"/>
     </row>
     <row r="18" spans="2:50" x14ac:dyDescent="0.6">
       <c r="B18" s="8"/>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="7">
         <v>3</v>
       </c>
@@ -2106,17 +2179,17 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="48" t="s">
+      <c r="M18" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7" t="s">
         <v>16</v>
@@ -2130,31 +2203,31 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
     </row>
     <row r="19" spans="2:50" hidden="1" x14ac:dyDescent="0.6">
       <c r="B19" s="8"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="7">
         <v>4</v>
       </c>
@@ -2166,15 +2239,15 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7" t="s">
         <v>16</v>
@@ -2208,13 +2281,13 @@
     </row>
     <row r="20" spans="2:50" hidden="1" x14ac:dyDescent="0.6">
       <c r="B20" s="8"/>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="7" t="s">
         <v>15</v>
       </c>
@@ -2222,15 +2295,15 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
@@ -2274,17 +2347,17 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="48" t="s">
+      <c r="M21" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7" t="s">
         <v>16</v>
@@ -2334,46 +2407,46 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="58"/>
+      <c r="AS22" s="58"/>
+      <c r="AT22" s="58"/>
+      <c r="AU22" s="58"/>
+      <c r="AV22" s="58"/>
+      <c r="AW22" s="58"/>
       <c r="AX22" s="36"/>
     </row>
     <row r="23" spans="2:50" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -2396,41 +2469,41 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="46" t="s">
+      <c r="Q23" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-      <c r="AL23" s="46"/>
-      <c r="AM23" s="46"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46"/>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="46"/>
-      <c r="AS23" s="46"/>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="46"/>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="47"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
+      <c r="AS23" s="47"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="47"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
     </row>
     <row r="24" spans="2:50" x14ac:dyDescent="0.6">
       <c r="B24" s="8">
@@ -2488,8 +2561,8 @@
     </row>
     <row r="25" spans="2:50" x14ac:dyDescent="0.6">
       <c r="B25" s="8"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
         <v>21</v>
@@ -2530,8 +2603,8 @@
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
       <c r="AO25" s="7" t="s">
         <v>24</v>
       </c>
@@ -2546,8 +2619,8 @@
     </row>
     <row r="26" spans="2:50" x14ac:dyDescent="0.6">
       <c r="B26" s="8"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
         <v>25</v>
@@ -2604,10 +2677,10 @@
     </row>
     <row r="27" spans="2:50" x14ac:dyDescent="0.6">
       <c r="B27" s="8"/>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
         <v>26</v>
@@ -2648,10 +2721,10 @@
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
-      <c r="AM27" s="43">
+      <c r="AM27" s="40">
         <v>1</v>
       </c>
-      <c r="AN27" s="43"/>
+      <c r="AN27" s="40"/>
       <c r="AO27" s="7" t="s">
         <v>24</v>
       </c>
@@ -2831,22 +2904,22 @@
       <c r="C31" s="7"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
       <c r="T31" s="12"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
@@ -2859,25 +2932,25 @@
       <c r="AC31" s="12"/>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
-      <c r="AF31" s="54" t="s">
+      <c r="AF31" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AG31" s="54"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="54"/>
-      <c r="AT31" s="54"/>
-      <c r="AU31" s="54"/>
-      <c r="AV31" s="54"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
       <c r="AW31" s="7"/>
       <c r="AX31" s="7"/>
     </row>
@@ -2888,8 +2961,8 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
       <c r="J32" s="7" t="s">
         <v>0</v>
       </c>
@@ -2898,9 +2971,9 @@
       <c r="M32" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -2929,9 +3002,9 @@
       <c r="AP32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AQ32" s="43"/>
-      <c r="AR32" s="43"/>
-      <c r="AS32" s="43"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="40"/>
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
       <c r="AV32" s="7"/>
@@ -3055,23 +3128,23 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
-      <c r="T35" s="61" t="s">
+      <c r="T35" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="61"/>
-      <c r="Z35" s="61"/>
-      <c r="AA35" s="61"/>
-      <c r="AB35" s="61"/>
-      <c r="AC35" s="61"/>
-      <c r="AD35" s="61"/>
-      <c r="AE35" s="61"/>
-      <c r="AF35" s="61"/>
-      <c r="AG35" s="61"/>
-      <c r="AH35" s="61"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="43"/>
       <c r="AI35" s="28"/>
       <c r="AJ35" s="18"/>
       <c r="AK35" s="18"/>
@@ -3105,23 +3178,23 @@
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="S36" s="28"/>
-      <c r="T36" s="62" t="s">
+      <c r="T36" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-      <c r="AE36" s="62"/>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="62"/>
-      <c r="AH36" s="62"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
       <c r="AI36" s="28"/>
       <c r="AJ36" s="28"/>
       <c r="AK36" s="28"/>
@@ -3169,9 +3242,9 @@
       <c r="AA37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AB37" s="43"/>
-      <c r="AC37" s="43"/>
-      <c r="AD37" s="43"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="40"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
@@ -3195,22 +3268,17 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="J10:AW10"/>
-    <mergeCell ref="AF31:AV31"/>
-    <mergeCell ref="T35:AH35"/>
-    <mergeCell ref="T36:AH36"/>
-    <mergeCell ref="F31:S31"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="L12:AW12"/>
-    <mergeCell ref="AF7:AW7"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="S14:AL14"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AR8:AU8"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="Q23:AW23"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="AG17:AW17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="AG18:AW18"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="AG16:AW16"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:G20"/>
@@ -3222,22 +3290,27 @@
     <mergeCell ref="AQ32:AS32"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AF7:AW7"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="S14:AL14"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AR8:AU8"/>
     <mergeCell ref="AC8:AM8"/>
     <mergeCell ref="P11:AW11"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="Q23:AW23"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="AG17:AW17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="AG18:AW18"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="AG16:AW16"/>
-    <mergeCell ref="W15:Y15"/>
     <mergeCell ref="J9:AW9"/>
     <mergeCell ref="L13:AW13"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="J10:AW10"/>
+    <mergeCell ref="AF31:AV31"/>
+    <mergeCell ref="T35:AH35"/>
+    <mergeCell ref="T36:AH36"/>
+    <mergeCell ref="F31:S31"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="L12:AW12"/>
+    <mergeCell ref="W15:Y15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.35433070866141736" top="0.35433070866141736" bottom="0.23622047244094491" header="0.51181102362204722" footer="0.15748031496062992"/>
